--- a/Directory.xlsx
+++ b/Directory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee.s.61\Procter and Gamble\PO priority - Project Eagles\tracker-next\tracker-next\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone.sharepoint.com/sites/POpriority/Shared Documents/Project Eagles/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB1D5E-1C7E-4C5B-96C7-91C2312465AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{56EB1D5E-1C7E-4C5B-96C7-91C2312465AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56DCCECA-0A72-4B0B-95AB-86206C9C1F5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C0C2A557-DDDC-4852-ACEC-740287787C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="107">
   <si>
     <t>Category</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Shin, Jaeah</t>
+  </si>
+  <si>
+    <t>Jeong, Hyobeom</t>
+  </si>
+  <si>
+    <t>jeong.h@pg.com</t>
   </si>
 </sst>
 </file>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FC8179-46D6-46FC-9AA2-D4A1EA3260AC}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,13 +1524,13 @@
         <v>27</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,13 +1538,13 @@
         <v>27</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1552,13 @@
         <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,12 +1566,26 @@
         <v>27</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1612,46 +1632,27 @@
     <hyperlink ref="C40" r:id="rId39" xr:uid="{A12B11D4-6798-4801-B278-5F15A0AF4052}"/>
     <hyperlink ref="C45" r:id="rId40" xr:uid="{BB219961-B1EA-4EC3-AE60-1A02EFB7BFD1}"/>
     <hyperlink ref="C53" r:id="rId41" xr:uid="{D5E63DCD-F758-4D51-A643-1F89EB3E705A}"/>
-    <hyperlink ref="C55" r:id="rId42" xr:uid="{2CBC17AE-F418-43CA-B07C-7EBF8DC3411A}"/>
-    <hyperlink ref="C56" r:id="rId43" display="mailto:cha.m@pg.com" xr:uid="{70F5B87B-7CF5-4284-91C5-1C5EAD470205}"/>
+    <hyperlink ref="C56" r:id="rId42" xr:uid="{2CBC17AE-F418-43CA-B07C-7EBF8DC3411A}"/>
+    <hyperlink ref="C57" r:id="rId43" display="mailto:cha.m@pg.com" xr:uid="{70F5B87B-7CF5-4284-91C5-1C5EAD470205}"/>
     <hyperlink ref="C6" r:id="rId44" xr:uid="{49A854C0-A3C1-4347-9E22-751482F3EEA2}"/>
     <hyperlink ref="C14" r:id="rId45" xr:uid="{CD4008C0-269F-4475-89EE-DF482914CAFF}"/>
     <hyperlink ref="C30" r:id="rId46" xr:uid="{37DED781-14C0-434C-A699-F9836FA3E5E8}"/>
     <hyperlink ref="C22" r:id="rId47" xr:uid="{ABD780B9-2BFB-495C-A386-2CAD2446C5BB}"/>
-    <hyperlink ref="C54" r:id="rId48" xr:uid="{E83F5155-9C0C-4B8D-95DE-21C51AF1712B}"/>
+    <hyperlink ref="C55" r:id="rId48" xr:uid="{E83F5155-9C0C-4B8D-95DE-21C51AF1712B}"/>
     <hyperlink ref="C46" r:id="rId49" xr:uid="{D661D48C-C749-41B4-A4A4-4890B6F6E076}"/>
+    <hyperlink ref="C54" r:id="rId50" xr:uid="{32CA7C4A-C8E8-4717-B2A6-AB05233913A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Business Use&amp;1#_x000D_</oddHeader>
   </headerFooter>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId50"/>
+    <customPr name="_pios_id" r:id="rId51"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57147975-5687-4135-8263-39f5df548c17">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96d24a6b-8465-4498-bb54-acea15c87a74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100200F1D6FEFF3D544A41ED546B108247B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6c0e7a184c0233f586ea7baba2e967b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57147975-5687-4135-8263-39f5df548c17" xmlns:ns3="96d24a6b-8465-4498-bb54-acea15c87a74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6204f9fca8cd82ddbd42930875406446" ns2:_="" ns3:_="">
     <xsd:import namespace="57147975-5687-4135-8263-39f5df548c17"/>
@@ -1874,32 +1875,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F679C922-C3EC-4DAE-830D-8F2395EB93EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="96d24a6b-8465-4498-bb54-acea15c87a74"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="57147975-5687-4135-8263-39f5df548c17"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B381B43-2BC5-4F31-BCB9-8B232C6A84C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57147975-5687-4135-8263-39f5df548c17">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96d24a6b-8465-4498-bb54-acea15c87a74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE5BD9FE-090E-4AE2-942B-DE48A93E9A44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1916,4 +1912,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B381B43-2BC5-4F31-BCB9-8B232C6A84C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F679C922-C3EC-4DAE-830D-8F2395EB93EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="96d24a6b-8465-4498-bb54-acea15c87a74"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="57147975-5687-4135-8263-39f5df548c17"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>